--- a/Doc/models/pert.xlsx
+++ b/Doc/models/pert.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raffa97\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raffa97\Desktop\Project Ingegneria sw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EA9086F-4A01-4874-944A-5EF1CCC1853F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D545DF-D513-43DE-A664-1970CB3B8854}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5688" xr2:uid="{6148072D-9833-4299-ADDD-FAC8D1B7F474}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5685" xr2:uid="{6148072D-9833-4299-ADDD-FAC8D1B7F474}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
-  <si>
-    <t>Colonna3</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="53">
   <si>
     <t>Analisi dei Requisiti</t>
   </si>
@@ -183,7 +180,10 @@
     <t>ID: 14</t>
   </si>
   <si>
-    <t>Fine: 23/12/18</t>
+    <t>Fine: 20/01/19</t>
+  </si>
+  <si>
+    <t>Durata: 13d</t>
   </si>
 </sst>
 </file>
@@ -1401,293 +1401,293 @@
   <dimension ref="B3:AF25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AC33" sqref="AC33"/>
+      <selection activeCell="AF16" sqref="AF16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" customWidth="1"/>
-    <col min="7" max="7" width="17.109375" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" customWidth="1"/>
-    <col min="11" max="11" width="16.21875" customWidth="1"/>
-    <col min="12" max="12" width="10.5546875" customWidth="1"/>
-    <col min="15" max="15" width="14.21875" customWidth="1"/>
-    <col min="16" max="16" width="11.33203125" customWidth="1"/>
-    <col min="19" max="19" width="13.77734375" customWidth="1"/>
-    <col min="20" max="20" width="10.21875" customWidth="1"/>
-    <col min="23" max="23" width="13.88671875" customWidth="1"/>
-    <col min="24" max="24" width="11.109375" customWidth="1"/>
-    <col min="27" max="27" width="15.33203125" customWidth="1"/>
-    <col min="28" max="28" width="10.77734375" customWidth="1"/>
-    <col min="31" max="31" width="14.88671875" customWidth="1"/>
-    <col min="32" max="32" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" customWidth="1"/>
+    <col min="19" max="19" width="13.7109375" customWidth="1"/>
+    <col min="20" max="20" width="10.28515625" customWidth="1"/>
+    <col min="23" max="23" width="13.85546875" customWidth="1"/>
+    <col min="24" max="24" width="11.140625" customWidth="1"/>
+    <col min="27" max="27" width="15.28515625" customWidth="1"/>
+    <col min="28" max="28" width="10.7109375" customWidth="1"/>
+    <col min="31" max="31" width="14.85546875" customWidth="1"/>
+    <col min="32" max="32" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:32" x14ac:dyDescent="0.25">
       <c r="K4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L4" s="2"/>
       <c r="O4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:32" x14ac:dyDescent="0.25">
       <c r="K5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="K6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="K6" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="L6" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="X6" s="2"/>
       <c r="AA6" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AB6" s="2"/>
     </row>
-    <row r="7" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:32" x14ac:dyDescent="0.25">
       <c r="G7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H7" s="2"/>
       <c r="W7" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AA7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB7" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="2:32" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:32" x14ac:dyDescent="0.25">
       <c r="G8" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="W8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB8" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="G9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="X8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB8" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="G9" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="H9" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:32" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="2:32" x14ac:dyDescent="0.25">
       <c r="K10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L10" s="2"/>
       <c r="O10" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P10" s="2"/>
       <c r="S10" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T10" s="2"/>
       <c r="AE10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF10" s="2"/>
+    </row>
+    <row r="11" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="K11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE11" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AF10" s="2"/>
-    </row>
-    <row r="11" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="K11" s="3" t="s">
+      <c r="AF11" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="K12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="S11" s="3" t="s">
+      <c r="L12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="S12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="T11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF11" s="4" t="s">
+      <c r="T12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE12" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="12" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="K12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="T12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE12" s="3" t="s">
+      <c r="AF12" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AF12" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="2:32" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="2:32" x14ac:dyDescent="0.25">
       <c r="W13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="X13" s="2"/>
+    </row>
+    <row r="14" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="W14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="X13" s="2"/>
-    </row>
-    <row r="14" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="W14" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="X14" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="2:32" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="2:32" x14ac:dyDescent="0.25">
       <c r="C15" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="2"/>
       <c r="G15" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H15" s="2"/>
       <c r="W15" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X15" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="C16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="C16" s="3" t="s">
+      <c r="G16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P16" s="2"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" s="4" t="s">
+      <c r="G17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="O18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="G23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P16" s="2"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H17" s="3" t="s">
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="G24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="P17" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="O18" s="3" t="s">
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="G25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="G23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="G24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="G25" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
